--- a/Bitacoras/2.final 27 marzo/BITACORA ETAPA PRODUCTIVA.xlsx
+++ b/Bitacoras/2.final 27 marzo/BITACORA ETAPA PRODUCTIVA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferney.ruiz\Documents\GitHub\Files-Practice\Bitacoras\2.final 27 marzo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{66BC5D2A-B26D-4ED2-B0CA-CD310BD80B48}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{262A1379-4136-46DA-AB75-399CC84F3A5E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="84">
   <si>
     <t>SERVICIO NACIONAL DE APRENDIZAJE SENA</t>
   </si>
@@ -224,9 +224,6 @@
   </si>
   <si>
     <t>Bogotá D.C</t>
-  </si>
-  <si>
-    <t>Josemar David Sierra Ramirez</t>
   </si>
   <si>
     <t>jsierra@lisim.com</t>
@@ -257,12 +254,6 @@
     </r>
   </si>
   <si>
-    <t>Ingeniero Proyecto Senior</t>
-  </si>
-  <si>
-    <t>Business Intelligence</t>
-  </si>
-  <si>
     <t>Realizar querys en SQL-Server con la clausula GROUP BY y verificar el porque de los datos nulos que aparecen en el resultado de la consulta.</t>
   </si>
   <si>
@@ -295,6 +286,19 @@
   </si>
   <si>
     <t>Generar una Power Pivot con una consulta Query de SQL Server y validar los valores en las tablas parametricas</t>
+  </si>
+  <si>
+    <t>Miller Ivan Saavedra Forero</t>
+  </si>
+  <si>
+    <t>Lider Business Integillence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analytics </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3219374373    
+</t>
   </si>
 </sst>
 </file>
@@ -922,6 +926,15 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -934,15 +947,6 @@
     <xf numFmtId="14" fontId="8" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -963,10 +967,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1118,6 +1118,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1539,8 +1543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X101"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40:N40"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R32" sqref="R32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -1566,136 +1570,136 @@
     <row r="1" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="88"/>
       <c r="C1" s="89"/>
-      <c r="D1" s="104" t="s">
+      <c r="D1" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="105"/>
-      <c r="N1" s="105"/>
-      <c r="O1" s="105"/>
-      <c r="P1" s="105"/>
-      <c r="Q1" s="105"/>
-      <c r="R1" s="105"/>
-      <c r="S1" s="105"/>
-      <c r="T1" s="105"/>
-      <c r="U1" s="105"/>
-      <c r="V1" s="105"/>
-      <c r="W1" s="106"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="105"/>
       <c r="X1" s="3"/>
     </row>
     <row r="2" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="90"/>
       <c r="C2" s="91"/>
-      <c r="D2" s="107" t="s">
+      <c r="D2" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="108"/>
-      <c r="O2" s="108"/>
-      <c r="P2" s="108"/>
-      <c r="Q2" s="108"/>
-      <c r="R2" s="108"/>
-      <c r="S2" s="108"/>
-      <c r="T2" s="108"/>
-      <c r="U2" s="108"/>
-      <c r="V2" s="108"/>
-      <c r="W2" s="109"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="107"/>
+      <c r="N2" s="107"/>
+      <c r="O2" s="107"/>
+      <c r="P2" s="107"/>
+      <c r="Q2" s="107"/>
+      <c r="R2" s="107"/>
+      <c r="S2" s="107"/>
+      <c r="T2" s="107"/>
+      <c r="U2" s="107"/>
+      <c r="V2" s="107"/>
+      <c r="W2" s="108"/>
       <c r="X2" s="3"/>
     </row>
     <row r="3" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="90"/>
       <c r="C3" s="91"/>
-      <c r="D3" s="110" t="s">
+      <c r="D3" s="109" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="111"/>
-      <c r="N3" s="111"/>
-      <c r="O3" s="111"/>
-      <c r="P3" s="111"/>
-      <c r="Q3" s="111"/>
-      <c r="R3" s="111"/>
-      <c r="S3" s="111"/>
-      <c r="T3" s="111"/>
-      <c r="U3" s="111"/>
-      <c r="V3" s="111"/>
-      <c r="W3" s="112"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="110"/>
+      <c r="N3" s="110"/>
+      <c r="O3" s="110"/>
+      <c r="P3" s="110"/>
+      <c r="Q3" s="110"/>
+      <c r="R3" s="110"/>
+      <c r="S3" s="110"/>
+      <c r="T3" s="110"/>
+      <c r="U3" s="110"/>
+      <c r="V3" s="110"/>
+      <c r="W3" s="111"/>
       <c r="X3" s="3"/>
     </row>
     <row r="4" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="90"/>
       <c r="C4" s="91"/>
-      <c r="D4" s="110" t="s">
+      <c r="D4" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="111"/>
-      <c r="L4" s="111"/>
-      <c r="M4" s="111"/>
-      <c r="N4" s="111"/>
-      <c r="O4" s="111"/>
-      <c r="P4" s="111"/>
-      <c r="Q4" s="111"/>
-      <c r="R4" s="111"/>
-      <c r="S4" s="111"/>
-      <c r="T4" s="111"/>
-      <c r="U4" s="111"/>
-      <c r="V4" s="111"/>
-      <c r="W4" s="112"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="110"/>
+      <c r="L4" s="110"/>
+      <c r="M4" s="110"/>
+      <c r="N4" s="110"/>
+      <c r="O4" s="110"/>
+      <c r="P4" s="110"/>
+      <c r="Q4" s="110"/>
+      <c r="R4" s="110"/>
+      <c r="S4" s="110"/>
+      <c r="T4" s="110"/>
+      <c r="U4" s="110"/>
+      <c r="V4" s="110"/>
+      <c r="W4" s="111"/>
       <c r="X4" s="3"/>
     </row>
     <row r="5" spans="1:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="119"/>
-      <c r="C5" s="120"/>
-      <c r="D5" s="113" t="s">
+      <c r="B5" s="118"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="114"/>
-      <c r="K5" s="114"/>
-      <c r="L5" s="114"/>
-      <c r="M5" s="114"/>
-      <c r="N5" s="114"/>
-      <c r="O5" s="114"/>
-      <c r="P5" s="114"/>
-      <c r="Q5" s="114"/>
-      <c r="R5" s="114"/>
-      <c r="S5" s="114"/>
-      <c r="T5" s="114"/>
-      <c r="U5" s="114"/>
-      <c r="V5" s="114"/>
-      <c r="W5" s="115"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="113"/>
+      <c r="K5" s="113"/>
+      <c r="L5" s="113"/>
+      <c r="M5" s="113"/>
+      <c r="N5" s="113"/>
+      <c r="O5" s="113"/>
+      <c r="P5" s="113"/>
+      <c r="Q5" s="113"/>
+      <c r="R5" s="113"/>
+      <c r="S5" s="113"/>
+      <c r="T5" s="113"/>
+      <c r="U5" s="113"/>
+      <c r="V5" s="113"/>
+      <c r="W5" s="114"/>
       <c r="X5" s="3"/>
     </row>
     <row r="6" spans="1:24" s="4" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1724,30 +1728,30 @@
       <c r="X6" s="3"/>
     </row>
     <row r="7" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="102" t="s">
+      <c r="B7" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
-      <c r="N7" s="102"/>
-      <c r="O7" s="102"/>
-      <c r="P7" s="102"/>
-      <c r="Q7" s="102"/>
-      <c r="R7" s="102"/>
-      <c r="S7" s="102"/>
-      <c r="T7" s="102"/>
-      <c r="U7" s="102"/>
-      <c r="V7" s="102"/>
-      <c r="W7" s="102"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
+      <c r="N7" s="101"/>
+      <c r="O7" s="101"/>
+      <c r="P7" s="101"/>
+      <c r="Q7" s="101"/>
+      <c r="R7" s="101"/>
+      <c r="S7" s="101"/>
+      <c r="T7" s="101"/>
+      <c r="U7" s="101"/>
+      <c r="V7" s="101"/>
+      <c r="W7" s="101"/>
       <c r="X7" s="2"/>
     </row>
     <row r="8" spans="1:24" s="27" customFormat="1" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1808,24 +1812,24 @@
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="34"/>
-      <c r="E10" s="124" t="s">
+      <c r="E10" s="123" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="125"/>
-      <c r="G10" s="125"/>
-      <c r="H10" s="125"/>
-      <c r="I10" s="125"/>
-      <c r="J10" s="125"/>
-      <c r="K10" s="125"/>
-      <c r="L10" s="125"/>
-      <c r="M10" s="125"/>
-      <c r="N10" s="125"/>
-      <c r="O10" s="126"/>
-      <c r="P10" s="123" t="s">
+      <c r="F10" s="124"/>
+      <c r="G10" s="124"/>
+      <c r="H10" s="124"/>
+      <c r="I10" s="124"/>
+      <c r="J10" s="124"/>
+      <c r="K10" s="124"/>
+      <c r="L10" s="124"/>
+      <c r="M10" s="124"/>
+      <c r="N10" s="124"/>
+      <c r="O10" s="125"/>
+      <c r="P10" s="122" t="s">
         <v>54</v>
       </c>
-      <c r="Q10" s="123"/>
-      <c r="R10" s="123"/>
+      <c r="Q10" s="122"/>
+      <c r="R10" s="122"/>
       <c r="S10" s="30" t="s">
         <v>11</v>
       </c>
@@ -1857,9 +1861,9 @@
       <c r="M11" s="6"/>
       <c r="N11" s="37"/>
       <c r="O11" s="37"/>
-      <c r="P11" s="123"/>
-      <c r="Q11" s="123"/>
-      <c r="R11" s="123"/>
+      <c r="P11" s="122"/>
+      <c r="Q11" s="122"/>
+      <c r="R11" s="122"/>
       <c r="S11" s="38"/>
       <c r="T11" s="52"/>
       <c r="U11" s="52"/>
@@ -1873,26 +1877,26 @@
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="131">
+      <c r="E12" s="130">
         <v>1056592950</v>
       </c>
-      <c r="F12" s="132"/>
-      <c r="G12" s="132"/>
-      <c r="H12" s="132"/>
-      <c r="I12" s="132"/>
-      <c r="J12" s="133"/>
+      <c r="F12" s="131"/>
+      <c r="G12" s="131"/>
+      <c r="H12" s="131"/>
+      <c r="I12" s="131"/>
+      <c r="J12" s="132"/>
       <c r="K12" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="127" t="s">
+      <c r="L12" s="126" t="s">
         <v>58</v>
       </c>
-      <c r="M12" s="128"/>
-      <c r="N12" s="128"/>
-      <c r="O12" s="129"/>
-      <c r="P12" s="123"/>
-      <c r="Q12" s="123"/>
-      <c r="R12" s="123"/>
+      <c r="M12" s="127"/>
+      <c r="N12" s="127"/>
+      <c r="O12" s="128"/>
+      <c r="P12" s="122"/>
+      <c r="Q12" s="122"/>
+      <c r="R12" s="122"/>
       <c r="S12" s="30" t="s">
         <v>12</v>
       </c>
@@ -1939,7 +1943,7 @@
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="103" t="s">
+      <c r="E14" s="102" t="s">
         <v>59</v>
       </c>
       <c r="F14" s="93"/>
@@ -1947,11 +1951,11 @@
       <c r="H14" s="93"/>
       <c r="I14" s="93"/>
       <c r="J14" s="94"/>
-      <c r="K14" s="121" t="s">
+      <c r="K14" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="121"/>
-      <c r="M14" s="122"/>
+      <c r="L14" s="120"/>
+      <c r="M14" s="121"/>
       <c r="N14" s="53">
         <v>27</v>
       </c>
@@ -1961,11 +1965,11 @@
       <c r="P14" s="53">
         <v>2018</v>
       </c>
-      <c r="Q14" s="130" t="s">
+      <c r="Q14" s="129" t="s">
         <v>13</v>
       </c>
-      <c r="R14" s="121"/>
-      <c r="S14" s="122"/>
+      <c r="R14" s="120"/>
+      <c r="S14" s="121"/>
       <c r="T14" s="51">
         <v>27</v>
       </c>
@@ -2009,30 +2013,30 @@
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="98" t="s">
-        <v>68</v>
-      </c>
-      <c r="F16" s="99"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="99"/>
-      <c r="J16" s="99"/>
-      <c r="K16" s="99"/>
-      <c r="L16" s="99"/>
-      <c r="M16" s="99"/>
-      <c r="N16" s="99"/>
-      <c r="O16" s="100"/>
+      <c r="E16" s="97" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="98"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="98"/>
+      <c r="I16" s="98"/>
+      <c r="J16" s="98"/>
+      <c r="K16" s="98"/>
+      <c r="L16" s="98"/>
+      <c r="M16" s="98"/>
+      <c r="N16" s="98"/>
+      <c r="O16" s="99"/>
       <c r="P16" s="6"/>
       <c r="Q16" s="25" t="s">
         <v>4</v>
       </c>
       <c r="R16" s="6"/>
       <c r="S16" s="6"/>
-      <c r="T16" s="101">
+      <c r="T16" s="100">
         <v>1193307</v>
       </c>
-      <c r="U16" s="101"/>
-      <c r="V16" s="101"/>
+      <c r="U16" s="100"/>
+      <c r="V16" s="100"/>
       <c r="W16" s="11"/>
     </row>
     <row r="17" spans="1:24" s="2" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.25">
@@ -2171,30 +2175,30 @@
       <c r="W21" s="31"/>
     </row>
     <row r="22" spans="1:24" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="102" t="s">
+      <c r="B22" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="102"/>
-      <c r="D22" s="102"/>
-      <c r="E22" s="102"/>
-      <c r="F22" s="102"/>
-      <c r="G22" s="102"/>
-      <c r="H22" s="102"/>
-      <c r="I22" s="102"/>
-      <c r="J22" s="102"/>
-      <c r="K22" s="102"/>
-      <c r="L22" s="102"/>
-      <c r="M22" s="102"/>
-      <c r="N22" s="102"/>
-      <c r="O22" s="102"/>
-      <c r="P22" s="102"/>
-      <c r="Q22" s="102"/>
-      <c r="R22" s="102"/>
-      <c r="S22" s="102"/>
-      <c r="T22" s="102"/>
-      <c r="U22" s="102"/>
-      <c r="V22" s="102"/>
-      <c r="W22" s="102"/>
+      <c r="C22" s="101"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="101"/>
+      <c r="H22" s="101"/>
+      <c r="I22" s="101"/>
+      <c r="J22" s="101"/>
+      <c r="K22" s="101"/>
+      <c r="L22" s="101"/>
+      <c r="M22" s="101"/>
+      <c r="N22" s="101"/>
+      <c r="O22" s="101"/>
+      <c r="P22" s="101"/>
+      <c r="Q22" s="101"/>
+      <c r="R22" s="101"/>
+      <c r="S22" s="101"/>
+      <c r="T22" s="101"/>
+      <c r="U22" s="101"/>
+      <c r="V22" s="101"/>
+      <c r="W22" s="101"/>
       <c r="X22" s="2"/>
     </row>
     <row r="23" spans="1:24" s="4" customFormat="1" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2375,7 +2379,7 @@
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="92" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="E29" s="93"/>
       <c r="F29" s="93"/>
@@ -2387,7 +2391,7 @@
       </c>
       <c r="K29" s="66"/>
       <c r="L29" s="92" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="M29" s="93"/>
       <c r="N29" s="93"/>
@@ -2397,7 +2401,7 @@
         <v>24</v>
       </c>
       <c r="R29" s="92" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="S29" s="93"/>
       <c r="T29" s="93"/>
@@ -2433,36 +2437,36 @@
       <c r="B31" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="103" t="s">
-        <v>67</v>
+      <c r="C31" s="102" t="s">
+        <v>66</v>
       </c>
       <c r="D31" s="93"/>
       <c r="E31" s="93"/>
       <c r="F31" s="93"/>
       <c r="G31" s="93"/>
       <c r="H31" s="94"/>
-      <c r="I31" s="141" t="s">
+      <c r="I31" s="140" t="s">
         <v>56</v>
       </c>
-      <c r="J31" s="142"/>
+      <c r="J31" s="141"/>
       <c r="K31" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="L31" s="140"/>
-      <c r="M31" s="140"/>
-      <c r="N31" s="140"/>
-      <c r="O31" s="140"/>
-      <c r="P31" s="140"/>
+      <c r="L31" s="139"/>
+      <c r="M31" s="139"/>
+      <c r="N31" s="139"/>
+      <c r="O31" s="139"/>
+      <c r="P31" s="139"/>
       <c r="Q31" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="R31" s="95">
-        <v>3168755152</v>
-      </c>
-      <c r="S31" s="96"/>
-      <c r="T31" s="96"/>
-      <c r="U31" s="96"/>
-      <c r="V31" s="97"/>
+      <c r="R31" s="142" t="s">
+        <v>83</v>
+      </c>
+      <c r="S31" s="95"/>
+      <c r="T31" s="95"/>
+      <c r="U31" s="95"/>
+      <c r="V31" s="96"/>
       <c r="W31" s="43"/>
     </row>
     <row r="32" spans="1:24" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2515,30 +2519,30 @@
       <c r="W33" s="31"/>
     </row>
     <row r="34" spans="1:24" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="102" t="s">
+      <c r="B34" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="102"/>
-      <c r="D34" s="102"/>
-      <c r="E34" s="102"/>
-      <c r="F34" s="102"/>
-      <c r="G34" s="102"/>
-      <c r="H34" s="102"/>
-      <c r="I34" s="102"/>
-      <c r="J34" s="102"/>
-      <c r="K34" s="102"/>
-      <c r="L34" s="102"/>
-      <c r="M34" s="102"/>
-      <c r="N34" s="102"/>
-      <c r="O34" s="102"/>
-      <c r="P34" s="102"/>
-      <c r="Q34" s="102"/>
-      <c r="R34" s="102"/>
-      <c r="S34" s="102"/>
-      <c r="T34" s="102"/>
-      <c r="U34" s="102"/>
-      <c r="V34" s="102"/>
-      <c r="W34" s="102"/>
+      <c r="C34" s="101"/>
+      <c r="D34" s="101"/>
+      <c r="E34" s="101"/>
+      <c r="F34" s="101"/>
+      <c r="G34" s="101"/>
+      <c r="H34" s="101"/>
+      <c r="I34" s="101"/>
+      <c r="J34" s="101"/>
+      <c r="K34" s="101"/>
+      <c r="L34" s="101"/>
+      <c r="M34" s="101"/>
+      <c r="N34" s="101"/>
+      <c r="O34" s="101"/>
+      <c r="P34" s="101"/>
+      <c r="Q34" s="101"/>
+      <c r="R34" s="101"/>
+      <c r="S34" s="101"/>
+      <c r="T34" s="101"/>
+      <c r="U34" s="101"/>
+      <c r="V34" s="101"/>
+      <c r="W34" s="101"/>
       <c r="X34" s="2"/>
     </row>
     <row r="35" spans="1:24" s="4" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2585,18 +2589,18 @@
       <c r="L36" s="71"/>
       <c r="M36" s="71"/>
       <c r="N36" s="79"/>
-      <c r="O36" s="81" t="s">
+      <c r="O36" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="P36" s="81"/>
-      <c r="Q36" s="81"/>
-      <c r="R36" s="81"/>
-      <c r="S36" s="134" t="s">
+      <c r="P36" s="84"/>
+      <c r="Q36" s="84"/>
+      <c r="R36" s="84"/>
+      <c r="S36" s="133" t="s">
         <v>36</v>
       </c>
-      <c r="T36" s="135"/>
-      <c r="U36" s="135"/>
-      <c r="V36" s="136"/>
+      <c r="T36" s="134"/>
+      <c r="U36" s="134"/>
+      <c r="V36" s="135"/>
       <c r="W36" s="23"/>
     </row>
     <row r="37" spans="1:24" s="4" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2613,110 +2617,110 @@
       <c r="L37" s="74"/>
       <c r="M37" s="74"/>
       <c r="N37" s="80"/>
-      <c r="O37" s="82" t="s">
+      <c r="O37" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="P37" s="82"/>
-      <c r="Q37" s="82" t="s">
+      <c r="P37" s="85"/>
+      <c r="Q37" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="R37" s="82"/>
-      <c r="S37" s="137"/>
-      <c r="T37" s="138"/>
-      <c r="U37" s="138"/>
-      <c r="V37" s="139"/>
+      <c r="R37" s="85"/>
+      <c r="S37" s="136"/>
+      <c r="T37" s="137"/>
+      <c r="U37" s="137"/>
+      <c r="V37" s="138"/>
       <c r="W37" s="23"/>
     </row>
     <row r="38" spans="1:24" s="4" customFormat="1" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="76" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C38" s="77"/>
       <c r="D38" s="77"/>
       <c r="E38" s="78"/>
-      <c r="F38" s="85" t="s">
-        <v>72</v>
-      </c>
-      <c r="G38" s="86"/>
-      <c r="H38" s="86"/>
-      <c r="I38" s="86"/>
-      <c r="J38" s="86"/>
-      <c r="K38" s="86"/>
-      <c r="L38" s="86"/>
-      <c r="M38" s="86"/>
-      <c r="N38" s="87"/>
-      <c r="O38" s="83">
+      <c r="F38" s="81" t="s">
+        <v>69</v>
+      </c>
+      <c r="G38" s="82"/>
+      <c r="H38" s="82"/>
+      <c r="I38" s="82"/>
+      <c r="J38" s="82"/>
+      <c r="K38" s="82"/>
+      <c r="L38" s="82"/>
+      <c r="M38" s="82"/>
+      <c r="N38" s="83"/>
+      <c r="O38" s="86">
         <v>43173</v>
       </c>
-      <c r="P38" s="84"/>
-      <c r="Q38" s="83">
+      <c r="P38" s="87"/>
+      <c r="Q38" s="86">
         <v>43174</v>
       </c>
-      <c r="R38" s="84"/>
-      <c r="S38" s="116"/>
-      <c r="T38" s="117"/>
-      <c r="U38" s="117"/>
-      <c r="V38" s="118"/>
+      <c r="R38" s="87"/>
+      <c r="S38" s="115"/>
+      <c r="T38" s="116"/>
+      <c r="U38" s="116"/>
+      <c r="V38" s="117"/>
       <c r="W38" s="23"/>
     </row>
     <row r="39" spans="1:24" s="4" customFormat="1" ht="89.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="76" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C39" s="77"/>
       <c r="D39" s="77"/>
       <c r="E39" s="78"/>
-      <c r="F39" s="85" t="s">
-        <v>73</v>
-      </c>
-      <c r="G39" s="86"/>
-      <c r="H39" s="86"/>
-      <c r="I39" s="86"/>
-      <c r="J39" s="86"/>
-      <c r="K39" s="86"/>
-      <c r="L39" s="86"/>
-      <c r="M39" s="86"/>
-      <c r="N39" s="87"/>
-      <c r="O39" s="83">
+      <c r="F39" s="81" t="s">
+        <v>70</v>
+      </c>
+      <c r="G39" s="82"/>
+      <c r="H39" s="82"/>
+      <c r="I39" s="82"/>
+      <c r="J39" s="82"/>
+      <c r="K39" s="82"/>
+      <c r="L39" s="82"/>
+      <c r="M39" s="82"/>
+      <c r="N39" s="83"/>
+      <c r="O39" s="86">
         <v>43175</v>
       </c>
-      <c r="P39" s="84"/>
-      <c r="Q39" s="83">
+      <c r="P39" s="87"/>
+      <c r="Q39" s="86">
         <v>43175</v>
       </c>
-      <c r="R39" s="84"/>
-      <c r="S39" s="116"/>
-      <c r="T39" s="117"/>
-      <c r="U39" s="117"/>
-      <c r="V39" s="118"/>
+      <c r="R39" s="87"/>
+      <c r="S39" s="115"/>
+      <c r="T39" s="116"/>
+      <c r="U39" s="116"/>
+      <c r="V39" s="117"/>
       <c r="W39" s="23"/>
     </row>
     <row r="40" spans="1:24" s="4" customFormat="1" ht="99.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="76" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C40" s="77"/>
       <c r="D40" s="77"/>
       <c r="E40" s="78"/>
-      <c r="F40" s="85" t="s">
-        <v>74</v>
-      </c>
-      <c r="G40" s="86"/>
-      <c r="H40" s="86"/>
-      <c r="I40" s="86"/>
-      <c r="J40" s="86"/>
-      <c r="K40" s="86"/>
-      <c r="L40" s="86"/>
-      <c r="M40" s="86"/>
-      <c r="N40" s="87"/>
-      <c r="O40" s="83">
+      <c r="F40" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="G40" s="82"/>
+      <c r="H40" s="82"/>
+      <c r="I40" s="82"/>
+      <c r="J40" s="82"/>
+      <c r="K40" s="82"/>
+      <c r="L40" s="82"/>
+      <c r="M40" s="82"/>
+      <c r="N40" s="83"/>
+      <c r="O40" s="86">
         <v>43175</v>
       </c>
-      <c r="P40" s="84"/>
-      <c r="Q40" s="83">
+      <c r="P40" s="87"/>
+      <c r="Q40" s="86">
         <v>43175</v>
       </c>
-      <c r="R40" s="84"/>
+      <c r="R40" s="87"/>
       <c r="S40" s="55"/>
       <c r="T40" s="56"/>
       <c r="U40" s="56"/>
@@ -2725,30 +2729,30 @@
     </row>
     <row r="41" spans="1:24" s="4" customFormat="1" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="76" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C41" s="77"/>
       <c r="D41" s="77"/>
       <c r="E41" s="78"/>
-      <c r="F41" s="85" t="s">
-        <v>75</v>
-      </c>
-      <c r="G41" s="86"/>
-      <c r="H41" s="86"/>
-      <c r="I41" s="86"/>
-      <c r="J41" s="86"/>
-      <c r="K41" s="86"/>
-      <c r="L41" s="86"/>
-      <c r="M41" s="86"/>
-      <c r="N41" s="87"/>
-      <c r="O41" s="83">
+      <c r="F41" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="G41" s="82"/>
+      <c r="H41" s="82"/>
+      <c r="I41" s="82"/>
+      <c r="J41" s="82"/>
+      <c r="K41" s="82"/>
+      <c r="L41" s="82"/>
+      <c r="M41" s="82"/>
+      <c r="N41" s="83"/>
+      <c r="O41" s="86">
         <v>43179</v>
       </c>
-      <c r="P41" s="84"/>
-      <c r="Q41" s="83">
+      <c r="P41" s="87"/>
+      <c r="Q41" s="86">
         <v>43179</v>
       </c>
-      <c r="R41" s="84"/>
+      <c r="R41" s="87"/>
       <c r="S41" s="55"/>
       <c r="T41" s="56"/>
       <c r="U41" s="56"/>
@@ -2757,226 +2761,226 @@
     </row>
     <row r="42" spans="1:24" s="4" customFormat="1" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="76" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C42" s="77"/>
       <c r="D42" s="77"/>
       <c r="E42" s="78"/>
-      <c r="F42" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="G42" s="86"/>
-      <c r="H42" s="86"/>
-      <c r="I42" s="86"/>
-      <c r="J42" s="86"/>
-      <c r="K42" s="86"/>
-      <c r="L42" s="86"/>
-      <c r="M42" s="86"/>
-      <c r="N42" s="87"/>
-      <c r="O42" s="83">
+      <c r="F42" s="81" t="s">
+        <v>73</v>
+      </c>
+      <c r="G42" s="82"/>
+      <c r="H42" s="82"/>
+      <c r="I42" s="82"/>
+      <c r="J42" s="82"/>
+      <c r="K42" s="82"/>
+      <c r="L42" s="82"/>
+      <c r="M42" s="82"/>
+      <c r="N42" s="83"/>
+      <c r="O42" s="86">
         <v>43179</v>
       </c>
-      <c r="P42" s="84"/>
-      <c r="Q42" s="83">
+      <c r="P42" s="87"/>
+      <c r="Q42" s="86">
         <v>43179</v>
       </c>
-      <c r="R42" s="84"/>
-      <c r="S42" s="116"/>
-      <c r="T42" s="117"/>
-      <c r="U42" s="117"/>
-      <c r="V42" s="118"/>
+      <c r="R42" s="87"/>
+      <c r="S42" s="115"/>
+      <c r="T42" s="116"/>
+      <c r="U42" s="116"/>
+      <c r="V42" s="117"/>
       <c r="W42" s="23"/>
     </row>
     <row r="43" spans="1:24" s="4" customFormat="1" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="76" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C43" s="77"/>
       <c r="D43" s="77"/>
       <c r="E43" s="78"/>
-      <c r="F43" s="85" t="s">
-        <v>77</v>
-      </c>
-      <c r="G43" s="86"/>
-      <c r="H43" s="86"/>
-      <c r="I43" s="86"/>
-      <c r="J43" s="86"/>
-      <c r="K43" s="86"/>
-      <c r="L43" s="86"/>
-      <c r="M43" s="86"/>
-      <c r="N43" s="87"/>
-      <c r="O43" s="83">
+      <c r="F43" s="81" t="s">
+        <v>74</v>
+      </c>
+      <c r="G43" s="82"/>
+      <c r="H43" s="82"/>
+      <c r="I43" s="82"/>
+      <c r="J43" s="82"/>
+      <c r="K43" s="82"/>
+      <c r="L43" s="82"/>
+      <c r="M43" s="82"/>
+      <c r="N43" s="83"/>
+      <c r="O43" s="86">
         <v>43180</v>
       </c>
-      <c r="P43" s="84"/>
-      <c r="Q43" s="83">
+      <c r="P43" s="87"/>
+      <c r="Q43" s="86">
         <v>43180</v>
       </c>
-      <c r="R43" s="84"/>
-      <c r="S43" s="116"/>
-      <c r="T43" s="117"/>
-      <c r="U43" s="117"/>
-      <c r="V43" s="118"/>
+      <c r="R43" s="87"/>
+      <c r="S43" s="115"/>
+      <c r="T43" s="116"/>
+      <c r="U43" s="116"/>
+      <c r="V43" s="117"/>
       <c r="W43" s="23"/>
     </row>
     <row r="44" spans="1:24" s="4" customFormat="1" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="76" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C44" s="77"/>
       <c r="D44" s="77"/>
       <c r="E44" s="78"/>
-      <c r="F44" s="85" t="s">
-        <v>78</v>
-      </c>
-      <c r="G44" s="86"/>
-      <c r="H44" s="86"/>
-      <c r="I44" s="86"/>
-      <c r="J44" s="86"/>
-      <c r="K44" s="86"/>
-      <c r="L44" s="86"/>
-      <c r="M44" s="86"/>
-      <c r="N44" s="87"/>
-      <c r="O44" s="83">
+      <c r="F44" s="81" t="s">
+        <v>75</v>
+      </c>
+      <c r="G44" s="82"/>
+      <c r="H44" s="82"/>
+      <c r="I44" s="82"/>
+      <c r="J44" s="82"/>
+      <c r="K44" s="82"/>
+      <c r="L44" s="82"/>
+      <c r="M44" s="82"/>
+      <c r="N44" s="83"/>
+      <c r="O44" s="86">
         <v>43181</v>
       </c>
-      <c r="P44" s="84"/>
-      <c r="Q44" s="83">
+      <c r="P44" s="87"/>
+      <c r="Q44" s="86">
         <v>43181</v>
       </c>
-      <c r="R44" s="84"/>
-      <c r="S44" s="116"/>
-      <c r="T44" s="117"/>
-      <c r="U44" s="117"/>
-      <c r="V44" s="118"/>
+      <c r="R44" s="87"/>
+      <c r="S44" s="115"/>
+      <c r="T44" s="116"/>
+      <c r="U44" s="116"/>
+      <c r="V44" s="117"/>
       <c r="W44" s="23"/>
     </row>
     <row r="45" spans="1:24" s="4" customFormat="1" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="76" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C45" s="77"/>
       <c r="D45" s="77"/>
       <c r="E45" s="78"/>
-      <c r="F45" s="85" t="s">
-        <v>79</v>
-      </c>
-      <c r="G45" s="86"/>
-      <c r="H45" s="86"/>
-      <c r="I45" s="86"/>
-      <c r="J45" s="86"/>
-      <c r="K45" s="86"/>
-      <c r="L45" s="86"/>
-      <c r="M45" s="86"/>
-      <c r="N45" s="87"/>
-      <c r="O45" s="83">
+      <c r="F45" s="81" t="s">
+        <v>76</v>
+      </c>
+      <c r="G45" s="82"/>
+      <c r="H45" s="82"/>
+      <c r="I45" s="82"/>
+      <c r="J45" s="82"/>
+      <c r="K45" s="82"/>
+      <c r="L45" s="82"/>
+      <c r="M45" s="82"/>
+      <c r="N45" s="83"/>
+      <c r="O45" s="86">
         <v>43181</v>
       </c>
-      <c r="P45" s="84"/>
-      <c r="Q45" s="83">
+      <c r="P45" s="87"/>
+      <c r="Q45" s="86">
         <v>43181</v>
       </c>
-      <c r="R45" s="84"/>
-      <c r="S45" s="116"/>
-      <c r="T45" s="117"/>
-      <c r="U45" s="117"/>
-      <c r="V45" s="118"/>
+      <c r="R45" s="87"/>
+      <c r="S45" s="115"/>
+      <c r="T45" s="116"/>
+      <c r="U45" s="116"/>
+      <c r="V45" s="117"/>
       <c r="W45" s="23"/>
     </row>
     <row r="46" spans="1:24" s="4" customFormat="1" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="76" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C46" s="77"/>
       <c r="D46" s="77"/>
       <c r="E46" s="78"/>
-      <c r="F46" s="85" t="s">
-        <v>80</v>
-      </c>
-      <c r="G46" s="86"/>
-      <c r="H46" s="86"/>
-      <c r="I46" s="86"/>
-      <c r="J46" s="86"/>
-      <c r="K46" s="86"/>
-      <c r="L46" s="86"/>
-      <c r="M46" s="86"/>
-      <c r="N46" s="87"/>
-      <c r="O46" s="83">
+      <c r="F46" s="81" t="s">
+        <v>77</v>
+      </c>
+      <c r="G46" s="82"/>
+      <c r="H46" s="82"/>
+      <c r="I46" s="82"/>
+      <c r="J46" s="82"/>
+      <c r="K46" s="82"/>
+      <c r="L46" s="82"/>
+      <c r="M46" s="82"/>
+      <c r="N46" s="83"/>
+      <c r="O46" s="86">
         <v>43182</v>
       </c>
-      <c r="P46" s="84"/>
-      <c r="Q46" s="83">
+      <c r="P46" s="87"/>
+      <c r="Q46" s="86">
         <v>43182</v>
       </c>
-      <c r="R46" s="84"/>
-      <c r="S46" s="116"/>
-      <c r="T46" s="117"/>
-      <c r="U46" s="117"/>
-      <c r="V46" s="118"/>
+      <c r="R46" s="87"/>
+      <c r="S46" s="115"/>
+      <c r="T46" s="116"/>
+      <c r="U46" s="116"/>
+      <c r="V46" s="117"/>
       <c r="W46" s="23"/>
     </row>
     <row r="47" spans="1:24" s="4" customFormat="1" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="76" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C47" s="77"/>
       <c r="D47" s="77"/>
       <c r="E47" s="78"/>
-      <c r="F47" s="85" t="s">
-        <v>81</v>
-      </c>
-      <c r="G47" s="86"/>
-      <c r="H47" s="86"/>
-      <c r="I47" s="86"/>
-      <c r="J47" s="86"/>
-      <c r="K47" s="86"/>
-      <c r="L47" s="86"/>
-      <c r="M47" s="86"/>
-      <c r="N47" s="87"/>
-      <c r="O47" s="83">
+      <c r="F47" s="81" t="s">
+        <v>78</v>
+      </c>
+      <c r="G47" s="82"/>
+      <c r="H47" s="82"/>
+      <c r="I47" s="82"/>
+      <c r="J47" s="82"/>
+      <c r="K47" s="82"/>
+      <c r="L47" s="82"/>
+      <c r="M47" s="82"/>
+      <c r="N47" s="83"/>
+      <c r="O47" s="86">
         <v>43181</v>
       </c>
-      <c r="P47" s="84"/>
-      <c r="Q47" s="83">
+      <c r="P47" s="87"/>
+      <c r="Q47" s="86">
         <v>43181</v>
       </c>
-      <c r="R47" s="84"/>
-      <c r="S47" s="116"/>
-      <c r="T47" s="117"/>
-      <c r="U47" s="117"/>
-      <c r="V47" s="118"/>
+      <c r="R47" s="87"/>
+      <c r="S47" s="115"/>
+      <c r="T47" s="116"/>
+      <c r="U47" s="116"/>
+      <c r="V47" s="117"/>
       <c r="W47" s="23"/>
     </row>
     <row r="48" spans="1:24" s="4" customFormat="1" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="76" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C48" s="77"/>
       <c r="D48" s="77"/>
       <c r="E48" s="78"/>
-      <c r="F48" s="85" t="s">
-        <v>82</v>
-      </c>
-      <c r="G48" s="86"/>
-      <c r="H48" s="86"/>
-      <c r="I48" s="86"/>
-      <c r="J48" s="86"/>
-      <c r="K48" s="86"/>
-      <c r="L48" s="86"/>
-      <c r="M48" s="86"/>
-      <c r="N48" s="87"/>
-      <c r="O48" s="83">
+      <c r="F48" s="81" t="s">
+        <v>79</v>
+      </c>
+      <c r="G48" s="82"/>
+      <c r="H48" s="82"/>
+      <c r="I48" s="82"/>
+      <c r="J48" s="82"/>
+      <c r="K48" s="82"/>
+      <c r="L48" s="82"/>
+      <c r="M48" s="82"/>
+      <c r="N48" s="83"/>
+      <c r="O48" s="86">
         <v>43186</v>
       </c>
-      <c r="P48" s="84"/>
-      <c r="Q48" s="83">
+      <c r="P48" s="87"/>
+      <c r="Q48" s="86">
         <v>43188</v>
       </c>
-      <c r="R48" s="84"/>
-      <c r="S48" s="116"/>
-      <c r="T48" s="117"/>
-      <c r="U48" s="117"/>
-      <c r="V48" s="118"/>
+      <c r="R48" s="87"/>
+      <c r="S48" s="115"/>
+      <c r="T48" s="116"/>
+      <c r="U48" s="116"/>
+      <c r="V48" s="117"/>
       <c r="W48" s="23"/>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.25"/>
@@ -3007,30 +3011,30 @@
       <c r="W51" s="31"/>
     </row>
     <row r="52" spans="1:24" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="102" t="s">
+      <c r="B52" s="101" t="s">
         <v>32</v>
       </c>
-      <c r="C52" s="102"/>
-      <c r="D52" s="102"/>
-      <c r="E52" s="102"/>
-      <c r="F52" s="102"/>
-      <c r="G52" s="102"/>
-      <c r="H52" s="102"/>
-      <c r="I52" s="102"/>
-      <c r="J52" s="102"/>
-      <c r="K52" s="102"/>
-      <c r="L52" s="102"/>
-      <c r="M52" s="102"/>
-      <c r="N52" s="102"/>
-      <c r="O52" s="102"/>
-      <c r="P52" s="102"/>
-      <c r="Q52" s="102"/>
-      <c r="R52" s="102"/>
-      <c r="S52" s="102"/>
-      <c r="T52" s="102"/>
-      <c r="U52" s="102"/>
-      <c r="V52" s="102"/>
-      <c r="W52" s="102"/>
+      <c r="C52" s="101"/>
+      <c r="D52" s="101"/>
+      <c r="E52" s="101"/>
+      <c r="F52" s="101"/>
+      <c r="G52" s="101"/>
+      <c r="H52" s="101"/>
+      <c r="I52" s="101"/>
+      <c r="J52" s="101"/>
+      <c r="K52" s="101"/>
+      <c r="L52" s="101"/>
+      <c r="M52" s="101"/>
+      <c r="N52" s="101"/>
+      <c r="O52" s="101"/>
+      <c r="P52" s="101"/>
+      <c r="Q52" s="101"/>
+      <c r="R52" s="101"/>
+      <c r="S52" s="101"/>
+      <c r="T52" s="101"/>
+      <c r="U52" s="101"/>
+      <c r="V52" s="101"/>
+      <c r="W52" s="101"/>
       <c r="X52" s="2"/>
     </row>
     <row r="53" spans="1:24" s="4" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
